--- a/Контрольная 1.xlsx
+++ b/Контрольная 1.xlsx
@@ -595,7 +595,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -622,13 +622,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" ht="57">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -660,7 +660,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -668,25 +668,25 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="B10" s="1"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="B11" s="1"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" ht="28.5">
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" ht="28.5">
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -694,12 +694,12 @@
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="B15" s="1"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" ht="14.25"/>
     <row r="17" ht="14.25"/>
